--- a/medicine/Enfance/Ana_de_Castro_Osório/Ana_de_Castro_Osório.xlsx
+++ b/medicine/Enfance/Ana_de_Castro_Osório/Ana_de_Castro_Osório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana_de_Castro_Os%C3%B3rio</t>
+          <t>Ana_de_Castro_Osório</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ana de Castro Osório née le 18 juin 1872 à Mangualde au Portugal et morte le 23 mars 1935 est une féministe portugaise, franc-maçonne, militante républicaine et auteure dans le domaine de la littérature pour enfants.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana_de_Castro_Os%C3%B3rio</t>
+          <t>Ana_de_Castro_Osório</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Ana de Castro Osório est née dans une famille fortunée le 18 juin 1872, sa mère est Mariana de Castro Osório Cabral e Albuquerque et son père Juge João Baptista de Castro. Elle est influencée par ses parents qui possède une immense bibliothèque et devient écrivaine à l'âge de 23 ans[1]. En 1889, elle se marie avec le poète républicain Paulino de Oliveira, avec qui elle a deux enfants[1].
-En 1911 quand son mari est nommé consul du Portugal au Brésil à Sao Paulo, elle s'installe avec lui dans ce pays. Elle rentre à la mort de celui en mars 1914 à la suite d'une tuberculose. Elle s'installe alors à Lisbonne dans la maison de sa famille. Elle commence à écrire sur l'engagement du Portugal dans la Première Guerre mondiale en maintenant une position défensive[1].
-Elle meurt à Lisbonne le 23 mars 1935 à l'âge de 62 ans[1].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ana de Castro Osório est née dans une famille fortunée le 18 juin 1872, sa mère est Mariana de Castro Osório Cabral e Albuquerque et son père Juge João Baptista de Castro. Elle est influencée par ses parents qui possède une immense bibliothèque et devient écrivaine à l'âge de 23 ans. En 1889, elle se marie avec le poète républicain Paulino de Oliveira, avec qui elle a deux enfants.
+En 1911 quand son mari est nommé consul du Portugal au Brésil à Sao Paulo, elle s'installe avec lui dans ce pays. Elle rentre à la mort de celui en mars 1914 à la suite d'une tuberculose. Elle s'installe alors à Lisbonne dans la maison de sa famille. Elle commence à écrire sur l'engagement du Portugal dans la Première Guerre mondiale en maintenant une position défensive.
+Elle meurt à Lisbonne le 23 mars 1935 à l'âge de 62 ans.
 </t>
         </is>
       </c>
